--- a/biology/Zoologie/Baeotis/Baeotis.xlsx
+++ b/biology/Zoologie/Baeotis/Baeotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotis est un genre de lépidoptères (papillons) de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Baeotis leur a été donné par Jacob Hübner en 1819.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baeotis attali Hall &amp; Willmott, 1998 ; présent en  Équateur.
 Baeotis bacaenis Hewitson, 1874 ; présent en  Équateur, en Bolivie et au Pérou.
@@ -555,10 +571,10 @@
 Baeotis elegantula Hopffer, 1874
 Baeotis euprepes (Bates, 1868) ;  présent en Guyane, en Bolivie et au Brésil.
 Baeotis felix Hewitson, 1874 ; présent en  Équateur et en Bolivie.
-Baeotis hisbon (Cramer, [1775]) ; présent en Guyane et au Brésil.
+Baeotis hisbon (Cramer, ) ; présent en Guyane et au Brésil.
 Baeotis johannae Sharpe, 1890 ;  présent au Brésil.
 Baeotis kadenii (C. &amp; R. Felder, 1861) ; présent au Venezuela et en Colombie.
-Baeotis melanis Hübner, [1831] ; présent au Brésil.
+Baeotis melanis Hübner,  ; présent au Brésil.
 Baeotis nesaea Godman &amp; Salvin, 1889 ; présent à Panama, au Costa Rica, en  Équateur et au Pérou.
 Baeotis prima (Bates, 1868) ;  présent en Guyane et au Brésil
 Baeotis staudingeri D'Abrera, 1994 ; présent au Pérou.
